--- a/biology/Zoologie/Épagneul_de_Saint-Usuge/Épagneul_de_Saint-Usuge.xlsx
+++ b/biology/Zoologie/Épagneul_de_Saint-Usuge/Épagneul_de_Saint-Usuge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pagneul_de_Saint-Usuge</t>
+          <t>Épagneul_de_Saint-Usuge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'épagneul de Saint-Usuge est une race d'épagneul originaire de la région de Bresse en France. La race a des origines remontant au moins au XVIe siècle, mais qui a presque disparu à la fin de la Seconde Guerre mondiale. Grâce aux efforts de Robert Billard, la race est réapparue au cours de la seconde moitié du XXe siècle. Son club de race national a été fondé en 1990. La race a été reconnue par la société centrale canine en 2003[1].
+L'épagneul de Saint-Usuge est une race d'épagneul originaire de la région de Bresse en France. La race a des origines remontant au moins au XVIe siècle, mais qui a presque disparu à la fin de la Seconde Guerre mondiale. Grâce aux efforts de Robert Billard, la race est réapparue au cours de la seconde moitié du XXe siècle. Son club de race national a été fondé en 1990. La race a été reconnue par la société centrale canine en 2003.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pagneul_de_Saint-Usuge</t>
+          <t>Épagneul_de_Saint-Usuge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D’après le docteur Guillemin, juge à l’exposition canine de Louhans en 1936 où 9 chiens avaient été présentés, c’est l’ancienne race des épagneuls qui se serait conservée intacte en Bresse. Le docteur Guillemin affirme même avoir retrouvé dans les chiens qui lui ont été « présentés », le portrait frappant des chiens de perdrix que représentent les vieilles tapisseries des Gobelins de divers châteaux d’Avignon et du Palais des Papes.
 Pourquoi ce nom d’Épagneul de St-Usuge ? Dans un concours de chiens d’arrêt, cet épagneul a emporté le 1er prix, et lorsque le juge a demandé à son propriétaire de quelle race d’épagneul il s’agissait, il lui fut répondu que c’était un Épagneul de la région, du village de St-Usuge. Ainsi est né l’Épagneul de St-Usuge.
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pagneul_de_Saint-Usuge</t>
+          <t>Épagneul_de_Saint-Usuge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">ASPECT GENERAL 
 Chien d'arrêt de type Epagneul au poil mi-long, souple, plat et soyeux, d'un ensemble harmonieux et élégant. C'est un chien médioligne, bien musclé et résistant, docile et au regard doux. Ses allures sont souples et régulières, d'une amplitude moyenne. 
@@ -631,7 +647,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pagneul_de_Saint-Usuge</t>
+          <t>Épagneul_de_Saint-Usuge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -649,7 +665,9 @@
           <t>Standard de travail</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chien d'un naturel très doux et docile, son dressage s'avère facile à condition de n'avoir aucun geste brutal. C'est un chien d'une grande sensibilité pour lequel une voix ferme suffira à obtenir ce que le dresseur exigera.
 L'Epagneul de Saint-Usuge est un chien tout à fait polyvalent, chassant aussi bien au bois, en plaine que dans les étangs ou marais. C'est un pisteur et un broussailleur qui aime particulièrement la chasse de la bécasse. 
@@ -669,7 +687,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pagneul_de_Saint-Usuge</t>
+          <t>Épagneul_de_Saint-Usuge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -687,7 +705,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'un naturel doux, docile, équilibré, affectueux, d'une grande sensibilité, sans crainte du gibier, attentif et passionné, il est facile à dresser.
 </t>
@@ -700,7 +720,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89pagneul_de_Saint-Usuge</t>
+          <t>Épagneul_de_Saint-Usuge</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -718,7 +738,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Chien d'arrêt
 </t>
